--- a/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_磐石组.xlsx
+++ b/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_磐石组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
   <si>
     <t>No</t>
   </si>
@@ -203,6 +203,14 @@
   </si>
   <si>
     <t>银行卡绑定时或重新绑定时提现失败</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓展首页需求变更(拓展员、拓展经理、区域经理)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -879,7 +887,7 @@
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9:J10"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1426,19 +1434,37 @@
       <c r="S12" s="18"/>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="12"/>
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+      <c r="A13" s="21">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
+      <c r="E13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="13">
+        <v>42527</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>27</v>
+      </c>
       <c r="H13" s="13"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
+      <c r="J13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="M13" s="14"/>
       <c r="N13" s="13"/>
       <c r="O13" s="14"/>

--- a/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_磐石组.xlsx
+++ b/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_磐石组.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -211,6 +211,18 @@
   </si>
   <si>
     <t>王岩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房源等级变动列表，集中式公寓变动无法查询</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug fix</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱文博</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -887,7 +899,7 @@
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1093,8 +1105,12 @@
       <c r="L4" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="13"/>
+      <c r="M4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="13">
+        <v>42527</v>
+      </c>
       <c r="O4" s="14"/>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
@@ -1305,8 +1321,12 @@
       <c r="L9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="13"/>
+      <c r="M9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="13">
+        <v>42527</v>
+      </c>
       <c r="O9" s="14"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
@@ -1345,8 +1365,12 @@
       <c r="L10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="14"/>
-      <c r="N10" s="13"/>
+      <c r="M10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="13">
+        <v>42527</v>
+      </c>
       <c r="O10" s="14"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
@@ -1385,8 +1409,12 @@
       <c r="L11" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="13"/>
+      <c r="M11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="13">
+        <v>42527</v>
+      </c>
       <c r="O11" s="14"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
@@ -1475,16 +1503,24 @@
       <c r="T13" s="10"/>
     </row>
     <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="12"/>
+      <c r="A14" s="21">
+        <v>13</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="14"/>
+      <c r="J14" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="14"/>

--- a/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_磐石组.xlsx
+++ b/VersionRecords/Version 3.1.4/版本Bug和特性计划及评审表v3.1.4_磐石组.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="版本3.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
+    <sheet name="版本3.1.4 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="59">
   <si>
     <t>No</t>
   </si>
@@ -222,7 +222,23 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>钱文博</t>
+    <t>王向阳、钱文博</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>未通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -899,7 +915,7 @@
   <dimension ref="A1:T218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -996,7 +1012,9 @@
       <c r="C2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="E2" s="12" t="s">
         <v>27</v>
       </c>
@@ -1006,7 +1024,9 @@
       <c r="G2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="13">
+        <v>42527</v>
+      </c>
       <c r="I2" s="12"/>
       <c r="J2" s="14" t="s">
         <v>41</v>
@@ -1023,7 +1043,9 @@
       <c r="N2" s="13">
         <v>42527</v>
       </c>
-      <c r="O2" s="14"/>
+      <c r="O2" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
@@ -1040,7 +1062,9 @@
       <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="E3" s="12" t="s">
         <v>27</v>
       </c>
@@ -1050,7 +1074,9 @@
       <c r="G3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="13">
+        <v>42521</v>
+      </c>
       <c r="I3" s="12"/>
       <c r="J3" s="14" t="s">
         <v>34</v>
@@ -1067,7 +1093,9 @@
       <c r="N3" s="13">
         <v>42522</v>
       </c>
-      <c r="O3" s="14"/>
+      <c r="O3" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P3" s="22"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
@@ -1084,7 +1112,9 @@
       <c r="C4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="E4" s="12" t="s">
         <v>27</v>
       </c>
@@ -1094,7 +1124,9 @@
       <c r="G4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="13"/>
+      <c r="H4" s="13">
+        <v>42527</v>
+      </c>
       <c r="I4" s="12"/>
       <c r="J4" s="14" t="s">
         <v>34</v>
@@ -1111,7 +1143,9 @@
       <c r="N4" s="13">
         <v>42527</v>
       </c>
-      <c r="O4" s="14"/>
+      <c r="O4" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P4" s="22"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
@@ -1128,7 +1162,9 @@
       <c r="C5" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="E5" s="12" t="s">
         <v>27</v>
       </c>
@@ -1138,7 +1174,9 @@
       <c r="G5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="13">
+        <v>42522</v>
+      </c>
       <c r="I5" s="12"/>
       <c r="J5" s="14" t="s">
         <v>39</v>
@@ -1155,7 +1193,9 @@
       <c r="N5" s="13">
         <v>42522</v>
       </c>
-      <c r="O5" s="14"/>
+      <c r="O5" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
@@ -1172,7 +1212,9 @@
       <c r="C6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="E6" s="12" t="s">
         <v>27</v>
       </c>
@@ -1182,7 +1224,9 @@
       <c r="G6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="13"/>
+      <c r="H6" s="13">
+        <v>42522</v>
+      </c>
       <c r="I6" s="12"/>
       <c r="J6" s="14" t="s">
         <v>40</v>
@@ -1199,7 +1243,9 @@
       <c r="N6" s="13">
         <v>42524</v>
       </c>
-      <c r="O6" s="14"/>
+      <c r="O6" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
@@ -1216,7 +1262,9 @@
       <c r="C7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="E7" s="12" t="s">
         <v>27</v>
       </c>
@@ -1226,7 +1274,9 @@
       <c r="G7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="13">
+        <v>42522</v>
+      </c>
       <c r="I7" s="12"/>
       <c r="J7" s="14" t="s">
         <v>40</v>
@@ -1243,7 +1293,9 @@
       <c r="N7" s="13">
         <v>42524</v>
       </c>
-      <c r="O7" s="14"/>
+      <c r="O7" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
@@ -1260,7 +1312,9 @@
       <c r="C8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="E8" s="12" t="s">
         <v>27</v>
       </c>
@@ -1270,7 +1324,9 @@
       <c r="G8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13">
+        <v>42527</v>
+      </c>
       <c r="I8" s="12"/>
       <c r="J8" s="14" t="s">
         <v>40</v>
@@ -1281,9 +1337,15 @@
       <c r="L8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+      <c r="M8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="N8" s="13">
+        <v>42527</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
@@ -1300,7 +1362,9 @@
       <c r="C9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="12"/>
+      <c r="D9" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>27</v>
       </c>
@@ -1310,7 +1374,9 @@
       <c r="G9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="13">
+        <v>42527</v>
+      </c>
       <c r="I9" s="12"/>
       <c r="J9" s="14" t="s">
         <v>39</v>
@@ -1327,7 +1393,9 @@
       <c r="N9" s="13">
         <v>42527</v>
       </c>
-      <c r="O9" s="14"/>
+      <c r="O9" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
@@ -1344,7 +1412,9 @@
       <c r="C10" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="E10" s="12" t="s">
         <v>27</v>
       </c>
@@ -1354,7 +1424,9 @@
       <c r="G10" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="13">
+        <v>42527</v>
+      </c>
       <c r="I10" s="12"/>
       <c r="J10" s="14" t="s">
         <v>39</v>
@@ -1371,7 +1443,9 @@
       <c r="N10" s="13">
         <v>42527</v>
       </c>
-      <c r="O10" s="14"/>
+      <c r="O10" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
@@ -1388,7 +1462,9 @@
       <c r="C11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="E11" s="12" t="s">
         <v>27</v>
       </c>
@@ -1398,7 +1474,9 @@
       <c r="G11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="13">
+        <v>42527</v>
+      </c>
       <c r="I11" s="12"/>
       <c r="J11" s="14" t="s">
         <v>40</v>
@@ -1410,12 +1488,14 @@
         <v>29</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="N11" s="13">
         <v>42527</v>
       </c>
-      <c r="O11" s="14"/>
+      <c r="O11" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
@@ -1432,7 +1512,9 @@
       <c r="C12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="E12" s="12" t="s">
         <v>27</v>
       </c>
@@ -1442,7 +1524,9 @@
       <c r="G12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="13">
+        <v>42527</v>
+      </c>
       <c r="I12" s="12"/>
       <c r="J12" s="14" t="s">
         <v>40</v>
@@ -1453,9 +1537,15 @@
       <c r="L12" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
+      <c r="M12" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="13">
+        <v>42527</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
@@ -1472,7 +1562,9 @@
       <c r="C13" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="12"/>
+      <c r="D13" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="E13" s="12" t="s">
         <v>27</v>
       </c>
@@ -1482,7 +1574,9 @@
       <c r="G13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="13">
+        <v>42527</v>
+      </c>
       <c r="I13" s="12"/>
       <c r="J13" s="14" t="s">
         <v>51</v>
@@ -1493,9 +1587,13 @@
       <c r="L13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="14"/>
+      <c r="M13" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+      <c r="O13" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
@@ -1512,20 +1610,40 @@
       <c r="C14" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="13">
+        <v>42527</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="13">
+        <v>42527</v>
+      </c>
       <c r="I14" s="12"/>
       <c r="J14" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
+      <c r="K14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N14" s="13">
+        <v>42527</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
